--- a/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3_no_HC_NH3.xlsx
+++ b/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3_no_HC_NH3.xlsx
@@ -27198,13 +27198,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G2">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H2">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I2">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="3">
@@ -27237,13 +27237,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G3">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H3">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I3">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="4">
@@ -27276,13 +27276,13 @@
         <v>37.65000830664013</v>
       </c>
       <c r="G4">
-        <v>41.56865141168191</v>
+        <v>37.65000830664013</v>
       </c>
       <c r="H4">
-        <v>50.67195411754744</v>
+        <v>37.65000830664013</v>
       </c>
       <c r="I4">
-        <v>61.76882931952071</v>
+        <v>37.65000830664013</v>
       </c>
     </row>
     <row r="5">
@@ -27315,13 +27315,13 @@
         <v>35.72179046836845</v>
       </c>
       <c r="G5">
-        <v>39.43974311205834</v>
+        <v>35.72179046836845</v>
       </c>
       <c r="H5">
-        <v>48.07682677962579</v>
+        <v>35.72179046836845</v>
       </c>
       <c r="I5">
-        <v>58.60538357541837</v>
+        <v>35.72179046836845</v>
       </c>
     </row>
     <row r="6">
@@ -27354,13 +27354,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G6">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H6">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I6">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="7">
@@ -27393,13 +27393,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G7">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H7">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I7">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="8">
@@ -27432,13 +27432,13 @@
         <v>37.83661003292448</v>
       </c>
       <c r="G8">
-        <v>41.77467479551644</v>
+        <v>37.83661003292448</v>
       </c>
       <c r="H8">
-        <v>50.92309547283018</v>
+        <v>37.83661003292448</v>
       </c>
       <c r="I8">
-        <v>62.07496923024028</v>
+        <v>37.83661003292448</v>
       </c>
     </row>
     <row r="9">
@@ -27471,13 +27471,13 @@
         <v>34.41931041890365</v>
       </c>
       <c r="G9">
-        <v>38.00169989289327</v>
+        <v>34.41931041890365</v>
       </c>
       <c r="H9">
-        <v>46.32386011975227</v>
+        <v>34.41931041890365</v>
       </c>
       <c r="I9">
-        <v>56.46852699859569</v>
+        <v>34.41931041890365</v>
       </c>
     </row>
     <row r="10">
@@ -27510,13 +27510,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G10">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H10">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I10">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="11">
@@ -27549,13 +27549,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G11">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H11">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I11">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="12">
@@ -27588,13 +27588,13 @@
         <v>39.51353754646656</v>
       </c>
       <c r="G12">
-        <v>43.62613827157615</v>
+        <v>39.51353754646656</v>
       </c>
       <c r="H12">
-        <v>53.18001911897106</v>
+        <v>39.51353754646656</v>
       </c>
       <c r="I12">
-        <v>64.82614656124024</v>
+        <v>39.51353754646656</v>
       </c>
     </row>
     <row r="13">
@@ -27627,13 +27627,13 @@
         <v>32.77845923910989</v>
       </c>
       <c r="G13">
-        <v>36.19006760437491</v>
+        <v>32.77845923910989</v>
       </c>
       <c r="H13">
-        <v>44.11549046896605</v>
+        <v>32.77845923910989</v>
       </c>
       <c r="I13">
-        <v>53.77653671700153</v>
+        <v>32.77845923910989</v>
       </c>
     </row>
     <row r="14">
@@ -27666,13 +27666,13 @@
         <v>35.79767517039076</v>
       </c>
       <c r="G14">
-        <v>39.52352595481773</v>
+        <v>35.79767517039076</v>
       </c>
       <c r="H14">
-        <v>48.17895759744078</v>
+        <v>35.79767517039076</v>
       </c>
       <c r="I14">
-        <v>58.72988047244433</v>
+        <v>35.79767517039076</v>
       </c>
     </row>
     <row r="15">
@@ -27705,13 +27705,13 @@
         <v>37.30044107273411</v>
       </c>
       <c r="G15">
-        <v>41.18270093929855</v>
+        <v>37.30044107273411</v>
       </c>
       <c r="H15">
-        <v>50.20148264531778</v>
+        <v>37.30044107273411</v>
       </c>
       <c r="I15">
-        <v>61.19532722010603</v>
+        <v>37.30044107273411</v>
       </c>
     </row>
     <row r="16">
@@ -27744,13 +27744,13 @@
         <v>30.69349595075935</v>
       </c>
       <c r="G16">
-        <v>33.88809966233033</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="H16">
-        <v>41.3094043926069</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="I16">
-        <v>50.35593344789473</v>
+        <v>30.69349595075935</v>
       </c>
     </row>
     <row r="17">
@@ -27783,13 +27783,13 @@
         <v>36.45326923540313</v>
       </c>
       <c r="G17">
-        <v>40.24735477668974</v>
+        <v>36.45326923540313</v>
       </c>
       <c r="H17">
-        <v>49.06130089233414</v>
+        <v>36.45326923540313</v>
       </c>
       <c r="I17">
-        <v>59.80545202543913</v>
+        <v>36.45326923540313</v>
       </c>
     </row>
     <row r="18">
@@ -27822,13 +27822,13 @@
         <v>36.81527658439479</v>
       </c>
       <c r="G18">
-        <v>40.64704014132875</v>
+        <v>36.81527658439479</v>
       </c>
       <c r="H18">
-        <v>49.54851512158266</v>
+        <v>36.81527658439479</v>
       </c>
       <c r="I18">
-        <v>60.39936345223512</v>
+        <v>36.81527658439479</v>
       </c>
     </row>
     <row r="19">
@@ -27861,13 +27861,13 @@
         <v>30.69349595075935</v>
       </c>
       <c r="G19">
-        <v>33.88809966233033</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="H19">
-        <v>41.3094043926069</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="I19">
-        <v>50.35593344789473</v>
+        <v>30.69349595075935</v>
       </c>
     </row>
     <row r="20">
@@ -27900,13 +27900,13 @@
         <v>37.50321494862977</v>
       </c>
       <c r="G20">
-        <v>41.4065796830654</v>
+        <v>37.50321494862977</v>
       </c>
       <c r="H20">
-        <v>50.47438958472502</v>
+        <v>37.50321494862977</v>
       </c>
       <c r="I20">
-        <v>61.5279992564213</v>
+        <v>37.50321494862977</v>
       </c>
     </row>
     <row r="21">
@@ -27939,13 +27939,13 @@
         <v>32.63042186959097</v>
       </c>
       <c r="G21">
-        <v>36.02662238653284</v>
+        <v>32.63042186959097</v>
       </c>
       <c r="H21">
-        <v>43.91625166044174</v>
+        <v>32.63042186959097</v>
       </c>
       <c r="I21">
-        <v>53.53366572116398</v>
+        <v>32.63042186959097</v>
       </c>
     </row>
     <row r="22">
@@ -27978,13 +27978,13 @@
         <v>34.85844648142617</v>
       </c>
       <c r="G22">
-        <v>38.48654158951722</v>
+        <v>34.85844648142617</v>
       </c>
       <c r="H22">
-        <v>46.91487944251765</v>
+        <v>34.85844648142617</v>
       </c>
       <c r="I22">
-        <v>57.18897625515577</v>
+        <v>34.85844648142617</v>
       </c>
     </row>
     <row r="23">
@@ -28017,13 +28017,13 @@
         <v>33.75376426182279</v>
       </c>
       <c r="G23">
-        <v>37.26688315721676</v>
+        <v>33.75376426182279</v>
       </c>
       <c r="H23">
-        <v>45.42812261924384</v>
+        <v>33.75376426182279</v>
       </c>
       <c r="I23">
-        <v>55.37662798369586</v>
+        <v>33.75376426182279</v>
       </c>
     </row>
     <row r="24">
@@ -28056,13 +28056,13 @@
         <v>36.05145351813749</v>
       </c>
       <c r="G24">
-        <v>39.80371775683271</v>
+        <v>36.05145351813749</v>
       </c>
       <c r="H24">
-        <v>48.52050984062532</v>
+        <v>36.05145351813749</v>
       </c>
       <c r="I24">
-        <v>59.14623075102298</v>
+        <v>36.05145351813749</v>
       </c>
     </row>
     <row r="25">
@@ -28095,13 +28095,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G25">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H25">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I25">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="26">
@@ -28134,13 +28134,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G26">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H26">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I26">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="27">
@@ -28173,13 +28173,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G27">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H27">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I27">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="28">
@@ -28212,13 +28212,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G28">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H28">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I28">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="29">
@@ -28251,13 +28251,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G29">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H29">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I29">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="30">
@@ -28290,13 +28290,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G30">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H30">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I30">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="31">
@@ -28329,13 +28329,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G31">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H31">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I31">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="32">
@@ -28368,13 +28368,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G32">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H32">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I32">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="33">
@@ -28641,13 +28641,13 @@
         <v>156.2976059357762</v>
       </c>
       <c r="G39">
-        <v>172.5651862998089</v>
+        <v>156.2976059357762</v>
       </c>
       <c r="H39">
-        <v>210.3559991848227</v>
+        <v>156.2976059357762</v>
       </c>
       <c r="I39">
-        <v>256.4227892187207</v>
+        <v>156.2976059357762</v>
       </c>
     </row>
     <row r="40">
@@ -28680,13 +28680,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G40">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H40">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I40">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="41">
@@ -28719,13 +28719,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G41">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H41">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I41">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="42">
@@ -28758,13 +28758,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G42">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H42">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I42">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="43">
@@ -28797,13 +28797,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G43">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H43">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I43">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="44">
@@ -28836,13 +28836,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G44">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H44">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I44">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="45">
@@ -28875,13 +28875,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G45">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H45">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I45">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="46">
@@ -28914,13 +28914,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G46">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H46">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I46">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="47">
@@ -28953,13 +28953,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G47">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H47">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I47">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="48">
@@ -28992,13 +28992,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G48">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H48">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I48">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="49">
@@ -29031,13 +29031,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G49">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H49">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I49">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="50">
@@ -29070,13 +29070,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G50">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H50">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I50">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="51">
@@ -29109,13 +29109,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G51">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H51">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I51">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="52">
@@ -29148,13 +29148,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G52">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H52">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I52">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="53">
@@ -29187,13 +29187,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G53">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H53">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I53">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="54">
@@ -29226,13 +29226,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G54">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H54">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I54">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="55">
@@ -29265,13 +29265,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G55">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H55">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I55">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="56">
@@ -29304,13 +29304,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G56">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H56">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I56">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="57">
@@ -29343,13 +29343,13 @@
         <v>425.3262907659658</v>
       </c>
       <c r="G57">
-        <v>469.5945927309643</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="H57">
-        <v>572.4331881987562</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="I57">
-        <v>697.7928622340926</v>
+        <v>425.3262907659658</v>
       </c>
     </row>
     <row r="58">
@@ -29382,13 +29382,13 @@
         <v>425.3262907659658</v>
       </c>
       <c r="G58">
-        <v>469.5945927309643</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="H58">
-        <v>572.4331881987562</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="I58">
-        <v>697.7928622340926</v>
+        <v>425.3262907659658</v>
       </c>
     </row>
     <row r="59">
@@ -29421,13 +29421,13 @@
         <v>449.9776228196376</v>
       </c>
       <c r="G59">
-        <v>496.8116552247322</v>
+        <v>449.9776228196376</v>
       </c>
       <c r="H59">
-        <v>605.6106355073077</v>
+        <v>449.9776228196376</v>
       </c>
       <c r="I59">
-        <v>738.2359853728871</v>
+        <v>449.9776228196376</v>
       </c>
     </row>
     <row r="60">
@@ -29460,13 +29460,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G60">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H60">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I60">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="61">
@@ -29499,13 +29499,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G61">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H61">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I61">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="62">
@@ -29538,13 +29538,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G62">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H62">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I62">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="63">
@@ -29577,13 +29577,13 @@
         <v>277.1583000386448</v>
       </c>
       <c r="G63">
-        <v>306.0051585202135</v>
+        <v>277.1583000386448</v>
       </c>
       <c r="H63">
-        <v>373.0185807257515</v>
+        <v>277.1583000386448</v>
       </c>
       <c r="I63">
-        <v>454.707568459055</v>
+        <v>277.1583000386448</v>
       </c>
     </row>
     <row r="64">
@@ -29616,13 +29616,13 @@
         <v>591.1107284660385</v>
       </c>
       <c r="G64">
-        <v>652.6340078649209</v>
+        <v>591.1107284660385</v>
       </c>
       <c r="H64">
-        <v>795.5572138861531</v>
+        <v>591.1107284660385</v>
       </c>
       <c r="I64">
-        <v>969.7798045137964</v>
+        <v>591.1107284660385</v>
       </c>
     </row>
   </sheetData>
@@ -54861,7 +54861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -59412,12 +59412,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>BF-BOF</t>
+          <t>Scraps_EAF</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -59426,28 +59426,28 @@
         </is>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Scraps_EAF</t>
+          <t>EU-mix-2018</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -59456,13 +59456,13 @@
         </is>
       </c>
       <c r="F153">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -59472,12 +59472,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>(NG)PE</t>
+          <t>(LN)O</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -59486,28 +59486,28 @@
         </is>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>(LN)O</t>
+          <t>(NG)_gfi</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -59516,28 +59516,28 @@
         </is>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(NG)PEA</t>
+          <t>Scraps_EAF</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -59546,13 +59546,13 @@
         </is>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -59576,13 +59576,13 @@
         </is>
       </c>
       <c r="F157">
-        <v>1700</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -59606,13 +59606,13 @@
         </is>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -59622,12 +59622,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>(NG)PEA</t>
+          <t>(LN)O</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -59636,28 +59636,28 @@
         </is>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>(LN)O</t>
+          <t>(NG)_gco</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -59666,13 +59666,13 @@
         </is>
       </c>
       <c r="F160">
-        <v>546</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -59682,12 +59682,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>glass-container</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>(NG)_gco</t>
+          <t>(NG)_gfi</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -59696,13 +59696,13 @@
         </is>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -59712,12 +59712,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>glass-fibre</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(NG)_gfi</t>
+          <t>(NG)_gfl</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -59726,28 +59726,28 @@
         </is>
       </c>
       <c r="F162">
-        <v>8</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>glass-float</t>
+          <t>steel-primary</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>(NG)_gfl</t>
+          <t>BF-BOF</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -59756,13 +59756,13 @@
         </is>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -59772,12 +59772,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>BF-BOF</t>
+          <t>Scraps_EAF</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -59786,28 +59786,28 @@
         </is>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Scraps_EAF</t>
+          <t>(NG)_gco</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -59816,28 +59816,28 @@
         </is>
       </c>
       <c r="F165">
-        <v>575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>EU-mix-2018</t>
+          <t>(NG)_gfi</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -59846,28 +59846,28 @@
         </is>
       </c>
       <c r="F166">
-        <v>9500</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>(NG)PE</t>
+          <t>(NG)_gfl</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -59876,306 +59876,6 @@
         </is>
       </c>
       <c r="F167">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>chemical-PEA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>(NG)PEA</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>chemical-olefins</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>(LN)O</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>(NG)_gco</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>(NG)_gfi</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>(NG)_gfl</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>steel-primary</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>BF-BOF</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>steel-secondary</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Scraps_EAF</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>(NG)_gco</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>(NG)_gfi</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>(NG)_gfl</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F177">
         <v>94</v>
       </c>
     </row>
@@ -60186,7 +59886,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64437,7 +64137,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -64446,26 +64146,26 @@
         </is>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -64474,16 +64174,16 @@
         </is>
       </c>
       <c r="E153">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F153">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -64493,7 +64193,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -64502,26 +64202,26 @@
         </is>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -64530,26 +64230,26 @@
         </is>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -64558,16 +64258,16 @@
         </is>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -64586,16 +64286,16 @@
         </is>
       </c>
       <c r="E157">
-        <v>1700</v>
+        <v>9500</v>
       </c>
       <c r="F157">
-        <v>1700</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -64614,16 +64314,16 @@
         </is>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -64633,7 +64333,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -64642,26 +64342,26 @@
         </is>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -64670,16 +64370,16 @@
         </is>
       </c>
       <c r="E160">
-        <v>546</v>
+        <v>2487</v>
       </c>
       <c r="F160">
-        <v>546</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -64689,7 +64389,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>glass-container</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -64698,16 +64398,16 @@
         </is>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -64717,7 +64417,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>glass-fibre</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -64726,26 +64426,26 @@
         </is>
       </c>
       <c r="E162">
-        <v>8</v>
+        <v>1050</v>
       </c>
       <c r="F162">
-        <v>8</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>glass-float</t>
+          <t>steel-primary</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -64754,16 +64454,16 @@
         </is>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -64773,7 +64473,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -64782,26 +64482,26 @@
         </is>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -64810,26 +64510,26 @@
         </is>
       </c>
       <c r="E165">
-        <v>575</v>
+        <v>109</v>
       </c>
       <c r="F165">
-        <v>575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -64838,26 +64538,26 @@
         </is>
       </c>
       <c r="E166">
-        <v>9500</v>
+        <v>23</v>
       </c>
       <c r="F166">
-        <v>9500</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -64866,289 +64566,9 @@
         </is>
       </c>
       <c r="E167">
-        <v>508</v>
+        <v>94</v>
       </c>
       <c r="F167">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>chemical-PEA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>chemical-olefins</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E169">
-        <v>2310</v>
-      </c>
-      <c r="F169">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E170">
-        <v>2487</v>
-      </c>
-      <c r="F170">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E171">
-        <v>128</v>
-      </c>
-      <c r="F171">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E172">
-        <v>1050</v>
-      </c>
-      <c r="F172">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>steel-primary</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E173">
-        <v>7000</v>
-      </c>
-      <c r="F173">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>steel-secondary</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E174">
-        <v>1600</v>
-      </c>
-      <c r="F174">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E175">
-        <v>109</v>
-      </c>
-      <c r="F175">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E176">
-        <v>23</v>
-      </c>
-      <c r="F176">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E177">
-        <v>94</v>
-      </c>
-      <c r="F177">
         <v>94</v>
       </c>
     </row>
@@ -77528,13 +76948,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G2">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H2">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I2">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="3">
@@ -77567,13 +76987,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G3">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H3">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I3">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="4">
@@ -77606,13 +77026,13 @@
         <v>393.0728043834692</v>
       </c>
       <c r="G4">
-        <v>433.9841375797772</v>
+        <v>393.0728043834692</v>
       </c>
       <c r="H4">
-        <v>529.0242420759855</v>
+        <v>393.0728043834692</v>
       </c>
       <c r="I4">
-        <v>644.8775991325821</v>
+        <v>393.0728043834692</v>
       </c>
     </row>
     <row r="5">
@@ -77645,13 +77065,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G5">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H5">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I5">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="6">
@@ -77684,13 +77104,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G6">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H6">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I6">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="7">
@@ -77723,13 +77143,13 @@
         <v>93.58822980065565</v>
       </c>
       <c r="G7">
-        <v>103.3289679283741</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="H7">
-        <v>125.9574353285052</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="I7">
-        <v>153.5414108222984</v>
+        <v>93.58822980065565</v>
       </c>
     </row>
     <row r="8">
@@ -77762,13 +77182,13 @@
         <v>411.7914455528071</v>
       </c>
       <c r="G8">
-        <v>454.6510299568324</v>
+        <v>411.7914455528071</v>
       </c>
       <c r="H8">
-        <v>554.217068562248</v>
+        <v>411.7914455528071</v>
       </c>
       <c r="I8">
-        <v>675.5875140432322</v>
+        <v>411.7914455528071</v>
       </c>
     </row>
     <row r="9">
@@ -77801,13 +77221,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G9">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H9">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I9">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="10">
@@ -77840,13 +77260,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G10">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H10">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I10">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="11">
@@ -77879,13 +77299,13 @@
         <v>93.58822980065565</v>
       </c>
       <c r="G11">
-        <v>103.3289679283741</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="H11">
-        <v>125.9574353285052</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="I11">
-        <v>153.5414108222984</v>
+        <v>93.58822980065565</v>
       </c>
     </row>
     <row r="12">
@@ -77918,13 +77338,13 @@
         <v>467.9436370262955</v>
       </c>
       <c r="G12">
-        <v>516.6475866203216</v>
+        <v>467.9436370262955</v>
       </c>
       <c r="H12">
-        <v>629.7905251939301</v>
+        <v>467.9436370262955</v>
       </c>
       <c r="I12">
-        <v>767.7111359769685</v>
+        <v>467.9436370262955</v>
       </c>
     </row>
     <row r="13">
@@ -77957,13 +77377,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G13">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H13">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I13">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="14">
@@ -77996,13 +77416,13 @@
         <v>299.4845745828135</v>
       </c>
       <c r="G14">
-        <v>330.6551696514031</v>
+        <v>299.4845745828135</v>
       </c>
       <c r="H14">
-        <v>403.0668067474802</v>
+        <v>299.4845745828135</v>
       </c>
       <c r="I14">
-        <v>491.3361883102836</v>
+        <v>299.4845745828135</v>
       </c>
     </row>
     <row r="15">
@@ -78035,13 +77455,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G15">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H15">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I15">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="16">
@@ -78074,13 +77494,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G16">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H16">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I16">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="17">
@@ -78113,13 +77533,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G17">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H17">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I17">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="18">
@@ -78152,13 +77572,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G18">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H18">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I18">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="19">
@@ -78191,13 +77611,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G19">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H19">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I19">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="20">
@@ -78230,13 +77650,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G20">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H20">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I20">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="21">
@@ -78269,13 +77689,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G21">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H21">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I21">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="22">
@@ -78308,13 +77728,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G22">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H22">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I22">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="23">
@@ -78347,13 +77767,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G23">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H23">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I23">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="24">
@@ -78386,13 +77806,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G24">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H24">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I24">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="25">
@@ -78425,13 +77845,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G25">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H25">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I25">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="26">
@@ -78464,13 +77884,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G26">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H26">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I26">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="27">
@@ -78503,13 +77923,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G27">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H27">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I27">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="28">
@@ -78542,13 +77962,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G28">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H28">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I28">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="29">
@@ -78581,13 +78001,13 @@
         <v>2096.389534056677</v>
       </c>
       <c r="G29">
-        <v>2314.58344058137</v>
+        <v>2096.389534056677</v>
       </c>
       <c r="H29">
-        <v>2821.464298680957</v>
+        <v>2096.389534056677</v>
       </c>
       <c r="I29">
-        <v>3439.349236306508</v>
+        <v>2096.389534056677</v>
       </c>
     </row>
     <row r="30">
@@ -78620,13 +78040,13 @@
         <v>2246.132443353839</v>
       </c>
       <c r="G30">
-        <v>2479.911712151685</v>
+        <v>2246.132443353839</v>
       </c>
       <c r="H30">
-        <v>3022.998539192549</v>
+        <v>2246.132443353839</v>
       </c>
       <c r="I30">
-        <v>3685.01835092802</v>
+        <v>2246.132443353839</v>
       </c>
     </row>
     <row r="31">
@@ -78659,13 +78079,13 @@
         <v>2152.542969541675</v>
       </c>
       <c r="G31">
-        <v>2376.581370734085</v>
+        <v>2152.542969541675</v>
       </c>
       <c r="H31">
-        <v>2897.039429588342</v>
+        <v>2152.542969541675</v>
       </c>
       <c r="I31">
-        <v>3531.474899172983</v>
+        <v>2152.542969541675</v>
       </c>
     </row>
     <row r="32">
@@ -78698,13 +78118,13 @@
         <v>2077.672136898848</v>
       </c>
       <c r="G32">
-        <v>2293.917921693541</v>
+        <v>2077.672136898848</v>
       </c>
       <c r="H32">
-        <v>2796.273146470397</v>
+        <v>2077.672136898848</v>
       </c>
       <c r="I32">
-        <v>3408.641362328597</v>
+        <v>2077.672136898848</v>
       </c>
     </row>
     <row r="33">
@@ -78737,13 +78157,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G33">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H33">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I33">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="34">
@@ -78776,13 +78196,13 @@
         <v>1647.163294188212</v>
       </c>
       <c r="G34">
-        <v>1818.601372848879</v>
+        <v>1647.163294188212</v>
       </c>
       <c r="H34">
-        <v>2216.864925697588</v>
+        <v>1647.163294188212</v>
       </c>
       <c r="I34">
-        <v>2702.345974307453</v>
+        <v>1647.163294188212</v>
       </c>
     </row>
     <row r="35">
@@ -78815,13 +78235,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G35">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H35">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I35">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="36">
@@ -78854,13 +78274,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G36">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H36">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I36">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="37">
@@ -78893,13 +78313,13 @@
         <v>4604.570513666162</v>
       </c>
       <c r="G37">
-        <v>5083.817911119572</v>
+        <v>4604.570513666162</v>
       </c>
       <c r="H37">
-        <v>6197.145665924162</v>
+        <v>4604.570513666162</v>
       </c>
       <c r="I37">
-        <v>7554.285986656249</v>
+        <v>4604.570513666162</v>
       </c>
     </row>
     <row r="38">
@@ -78932,13 +78352,13 @@
         <v>2189.979007868842</v>
       </c>
       <c r="G38">
-        <v>2417.91378199897</v>
+        <v>2189.979007868842</v>
       </c>
       <c r="H38">
-        <v>2947.423408285165</v>
+        <v>2189.979007868842</v>
       </c>
       <c r="I38">
-        <v>3592.892688061546</v>
+        <v>2189.979007868842</v>
       </c>
     </row>
     <row r="39">
@@ -78971,13 +78391,13 @@
         <v>16490.35282706296</v>
       </c>
       <c r="G39">
-        <v>18206.68199435507</v>
+        <v>16490.35282706296</v>
       </c>
       <c r="H39">
-        <v>22193.84375773785</v>
+        <v>16490.35282706296</v>
       </c>
       <c r="I39">
-        <v>27054.17169891792</v>
+        <v>16490.35282706296</v>
       </c>
     </row>
     <row r="40">
@@ -79010,13 +78430,13 @@
         <v>992.0419535490962</v>
       </c>
       <c r="G40">
-        <v>1095.294476882583</v>
+        <v>992.0419535490962</v>
       </c>
       <c r="H40">
-        <v>1335.157855570946</v>
+        <v>992.0419535490962</v>
       </c>
       <c r="I40">
-        <v>1627.549975753149</v>
+        <v>992.0419535490962</v>
       </c>
     </row>
     <row r="41">
@@ -79049,13 +78469,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G41">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H41">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I41">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="42">
@@ -79088,13 +78508,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G42">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H42">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I42">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="43">
@@ -79127,13 +78547,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G43">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H43">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I43">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="44">
@@ -79166,13 +78586,13 @@
         <v>935.8885180640997</v>
       </c>
       <c r="G44">
-        <v>1033.296546729869</v>
+        <v>935.8885180640997</v>
       </c>
       <c r="H44">
-        <v>1259.582724663562</v>
+        <v>935.8885180640997</v>
       </c>
       <c r="I44">
-        <v>1535.424312886675</v>
+        <v>935.8885180640997</v>
       </c>
     </row>
     <row r="45">
@@ -79205,13 +78625,13 @@
         <v>954.6059152219291</v>
       </c>
       <c r="G45">
-        <v>1053.962065617698</v>
+        <v>954.6059152219291</v>
       </c>
       <c r="H45">
-        <v>1284.773876874123</v>
+        <v>954.6059152219291</v>
       </c>
       <c r="I45">
-        <v>1566.132186864587</v>
+        <v>954.6059152219291</v>
       </c>
     </row>
     <row r="46">
@@ -79244,13 +78664,13 @@
         <v>1497.421628902559</v>
       </c>
       <c r="G46">
-        <v>1653.27447476779</v>
+        <v>1497.421628902559</v>
       </c>
       <c r="H46">
-        <v>2015.332359461699</v>
+        <v>1497.421628902559</v>
       </c>
       <c r="I46">
-        <v>2456.67890061868</v>
+        <v>1497.421628902559</v>
       </c>
     </row>
     <row r="47">
@@ -79283,13 +78703,13 @@
         <v>1572.292461545385</v>
       </c>
       <c r="G47">
-        <v>1735.937923808334</v>
+        <v>1572.292461545385</v>
       </c>
       <c r="H47">
-        <v>2116.098642579643</v>
+        <v>1572.292461545385</v>
       </c>
       <c r="I47">
-        <v>2579.512437463066</v>
+        <v>1572.292461545385</v>
       </c>
     </row>
     <row r="48">
@@ -79322,13 +78742,13 @@
         <v>1441.268193417563</v>
       </c>
       <c r="G48">
-        <v>1591.276544615075</v>
+        <v>1441.268193417563</v>
       </c>
       <c r="H48">
-        <v>1939.757228554316</v>
+        <v>1441.268193417563</v>
       </c>
       <c r="I48">
-        <v>2364.553237752206</v>
+        <v>1441.268193417563</v>
       </c>
     </row>
     <row r="49">
@@ -79361,13 +78781,13 @@
         <v>1478.702987733221</v>
       </c>
       <c r="G49">
-        <v>1632.607582390734</v>
+        <v>1478.702987733221</v>
       </c>
       <c r="H49">
-        <v>1990.139532975436</v>
+        <v>1478.702987733221</v>
       </c>
       <c r="I49">
-        <v>2425.968985708029</v>
+        <v>1478.702987733221</v>
       </c>
     </row>
     <row r="50">
@@ -79400,13 +78820,13 @@
         <v>1347.678719605398</v>
       </c>
       <c r="G50">
-        <v>1487.946203197476</v>
+        <v>1347.678719605398</v>
       </c>
       <c r="H50">
-        <v>1813.798118950108</v>
+        <v>1347.678719605398</v>
       </c>
       <c r="I50">
-        <v>2211.009785997169</v>
+        <v>1347.678719605398</v>
       </c>
     </row>
     <row r="51">
@@ -79439,13 +78859,13 @@
         <v>1141.783618834749</v>
       </c>
       <c r="G51">
-        <v>1260.621374963672</v>
+        <v>1141.783618834749</v>
       </c>
       <c r="H51">
-        <v>1536.690421806835</v>
+        <v>1141.783618834749</v>
       </c>
       <c r="I51">
-        <v>1873.217049441922</v>
+        <v>1141.783618834749</v>
       </c>
     </row>
     <row r="52">
@@ -79478,13 +78898,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G52">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H52">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I52">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="53">
@@ -79517,13 +78937,13 @@
         <v>1179.219657161916</v>
       </c>
       <c r="G53">
-        <v>1301.953786228557</v>
+        <v>1179.219657161916</v>
       </c>
       <c r="H53">
-        <v>1587.074400503658</v>
+        <v>1179.219657161916</v>
       </c>
       <c r="I53">
-        <v>1934.634838330484</v>
+        <v>1179.219657161916</v>
       </c>
     </row>
     <row r="54">
@@ -79556,13 +78976,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G54">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H54">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I54">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="55">
@@ -79595,13 +79015,13 @@
         <v>1085.630183349752</v>
       </c>
       <c r="G55">
-        <v>1198.623444810958</v>
+        <v>1085.630183349752</v>
       </c>
       <c r="H55">
-        <v>1461.115290899451</v>
+        <v>1085.630183349752</v>
       </c>
       <c r="I55">
-        <v>1781.091386575448</v>
+        <v>1085.630183349752</v>
       </c>
     </row>
     <row r="56">
@@ -79634,13 +79054,13 @@
         <v>1104.34882451909</v>
       </c>
       <c r="G56">
-        <v>1219.290337188013</v>
+        <v>1104.34882451909</v>
       </c>
       <c r="H56">
-        <v>1486.308117385714</v>
+        <v>1104.34882451909</v>
       </c>
       <c r="I56">
-        <v>1811.801301486098</v>
+        <v>1104.34882451909</v>
       </c>
     </row>
     <row r="57">
@@ -79673,13 +79093,13 @@
         <v>617.6865463234566</v>
       </c>
       <c r="G57">
-        <v>681.9758581906359</v>
+        <v>617.6865463234566</v>
       </c>
       <c r="H57">
-        <v>831.3247657055211</v>
+        <v>617.6865463234566</v>
       </c>
       <c r="I57">
-        <v>1013.380250598479</v>
+        <v>617.6865463234566</v>
       </c>
     </row>
     <row r="58">
@@ -79712,13 +79132,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G58">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H58">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I58">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="59">
@@ -79751,13 +79171,13 @@
         <v>1160.501015992578</v>
       </c>
       <c r="G59">
-        <v>1281.286893851502</v>
+        <v>1160.501015992578</v>
       </c>
       <c r="H59">
-        <v>1561.881574017395</v>
+        <v>1160.501015992578</v>
       </c>
       <c r="I59">
-        <v>1903.924923419834</v>
+        <v>1160.501015992578</v>
       </c>
     </row>
     <row r="60">
@@ -79790,13 +79210,13 @@
         <v>598.9679051541186</v>
       </c>
       <c r="G60">
-        <v>661.3089658135807</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="H60">
-        <v>806.1319392192587</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="I60">
-        <v>982.6703356878293</v>
+        <v>598.9679051541186</v>
       </c>
     </row>
     <row r="61">
@@ -79829,13 +79249,13 @@
         <v>861.0176854212731</v>
       </c>
       <c r="G61">
-        <v>950.6330976893241</v>
+        <v>861.0176854212731</v>
       </c>
       <c r="H61">
-        <v>1158.816441545617</v>
+        <v>861.0176854212731</v>
       </c>
       <c r="I61">
-        <v>1412.590776042288</v>
+        <v>861.0176854212731</v>
       </c>
     </row>
     <row r="62">
@@ -79868,13 +79288,13 @@
         <v>598.9679051541186</v>
       </c>
       <c r="G62">
-        <v>661.3089658135807</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="H62">
-        <v>806.1319392192587</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="I62">
-        <v>982.6703356878293</v>
+        <v>598.9679051541186</v>
       </c>
     </row>
     <row r="63">
@@ -79907,13 +79327,13 @@
         <v>1385.114757932565</v>
       </c>
       <c r="G63">
-        <v>1529.27861446236</v>
+        <v>1385.114757932565</v>
       </c>
       <c r="H63">
-        <v>1864.182097646931</v>
+        <v>1385.114757932565</v>
       </c>
       <c r="I63">
-        <v>2272.427574885731</v>
+        <v>1385.114757932565</v>
       </c>
     </row>
     <row r="64">
@@ -79946,13 +79366,13 @@
         <v>336.9193688984724</v>
       </c>
       <c r="G64">
-        <v>371.9862074270625</v>
+        <v>336.9193688984724</v>
       </c>
       <c r="H64">
-        <v>453.4491111686016</v>
+        <v>336.9193688984724</v>
       </c>
       <c r="I64">
-        <v>552.7519362661078</v>
+        <v>336.9193688984724</v>
       </c>
     </row>
   </sheetData>
